--- a/src/analysis_examples/circadb/results_lomb/cosinor_10556442_tead1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10556442_tead1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.25864006233163894, 0.3718527949759459]</t>
+          <t>[0.2588191639124338, 0.37167369339515105]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.397162385785577e-10</v>
+        <v>1.318498643598787e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.397162385785577e-10</v>
+        <v>1.318498643598787e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6792632764518469</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.44407706216802256, 0.5032817266243966]</t>
+          <t>[0.44408369217114546, 0.5032750966212738]</t>
         </is>
       </c>
       <c r="U2" t="n">
